--- a/Data/ROY Data/rookies_05_06.xlsx
+++ b/Data/ROY Data/rookies_05_06.xlsx
@@ -1014,76 +1014,73 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="I2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
         <v>9</v>
       </c>
-      <c r="P2">
-        <v>29</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>4</v>
-      </c>
-      <c r="T2">
-        <v>11</v>
-      </c>
-      <c r="U2">
-        <v>13</v>
-      </c>
-      <c r="V2">
-        <v>81</v>
-      </c>
       <c r="W2">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="X2">
-        <v>0.32</v>
-      </c>
-      <c r="Y2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Z2">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AA2">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" t="s">
         <v>176</v>
@@ -1106,76 +1103,76 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>6793</v>
+        <v>564</v>
       </c>
       <c r="I3">
-        <v>843</v>
+        <v>75</v>
       </c>
       <c r="J3">
-        <v>2084</v>
+        <v>181</v>
       </c>
       <c r="K3">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="L3">
-        <v>963</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>404</v>
+        <v>33</v>
       </c>
       <c r="N3">
-        <v>495</v>
+        <v>41</v>
       </c>
       <c r="O3">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="P3">
-        <v>714</v>
+        <v>70</v>
       </c>
       <c r="Q3">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c r="R3">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="S3">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="U3">
-        <v>602</v>
+        <v>48</v>
       </c>
       <c r="V3">
-        <v>2421</v>
+        <v>207</v>
       </c>
       <c r="W3">
-        <v>0.405</v>
+        <v>0.414</v>
       </c>
       <c r="X3">
-        <v>0.344</v>
+        <v>0.414</v>
       </c>
       <c r="Y3">
-        <v>0.8159999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="Z3">
-        <v>20.6</v>
+        <v>15.7</v>
       </c>
       <c r="AA3">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="AB3">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AC3">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD3" t="s">
         <v>176</v>
@@ -1284,76 +1281,73 @@
         <v>24</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>140</v>
-      </c>
       <c r="H5">
-        <v>1985</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>687</v>
+        <v>16</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>18</v>
-      </c>
-      <c r="M5">
-        <v>127</v>
-      </c>
       <c r="N5">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>492</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>640</v>
+        <v>13</v>
       </c>
       <c r="W5">
-        <v>0.371</v>
-      </c>
-      <c r="X5">
-        <v>0.167</v>
+        <v>0.313</v>
       </c>
       <c r="Y5">
-        <v>0.702</v>
+        <v>0.75</v>
       </c>
       <c r="Z5">
-        <v>14.2</v>
+        <v>5.6</v>
       </c>
       <c r="AA5">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="AB5">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="s">
         <v>176</v>
@@ -1468,76 +1462,73 @@
         <v>20</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>268</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>758</v>
-      </c>
-      <c r="H7">
-        <v>16410</v>
-      </c>
-      <c r="I7">
-        <v>2558</v>
-      </c>
-      <c r="J7">
-        <v>5125</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>58</v>
-      </c>
-      <c r="M7">
-        <v>1447</v>
-      </c>
       <c r="N7">
-        <v>1740</v>
+        <v>19</v>
       </c>
       <c r="O7">
-        <v>1139</v>
+        <v>18</v>
       </c>
       <c r="P7">
-        <v>3448</v>
+        <v>68</v>
       </c>
       <c r="Q7">
-        <v>608</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>479</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>718</v>
+        <v>11</v>
       </c>
       <c r="U7">
-        <v>1375</v>
+        <v>18</v>
       </c>
       <c r="V7">
-        <v>6575</v>
+        <v>68</v>
       </c>
       <c r="W7">
-        <v>0.499</v>
-      </c>
-      <c r="X7">
-        <v>0.207</v>
+        <v>0.4</v>
       </c>
       <c r="Y7">
-        <v>0.832</v>
+        <v>0.632</v>
       </c>
       <c r="Z7">
-        <v>21.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA7">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="AB7">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD7" t="s">
         <v>176</v>
@@ -1560,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>576</v>
+        <v>495</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J8">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1581,55 +1572,55 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N8">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O8">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P8">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S8">
         <v>11</v>
       </c>
       <c r="T8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U8">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="V8">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="W8">
-        <v>0.438</v>
+        <v>0.425</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.617</v>
+        <v>0.623</v>
       </c>
       <c r="Z8">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB8">
         <v>2.5</v>
       </c>
       <c r="AC8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD8" t="s">
         <v>176</v>
@@ -1652,76 +1643,76 @@
         <v>19</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>564</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>12462</v>
+        <v>175</v>
       </c>
       <c r="I9">
-        <v>2327</v>
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>4981</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>1380</v>
+        <v>12</v>
       </c>
       <c r="O9">
-        <v>1043</v>
+        <v>12</v>
       </c>
       <c r="P9">
-        <v>3024</v>
+        <v>38</v>
       </c>
       <c r="Q9">
-        <v>798</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>458</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>914</v>
+        <v>12</v>
       </c>
       <c r="U9">
-        <v>1382</v>
+        <v>36</v>
       </c>
       <c r="V9">
-        <v>5706</v>
+        <v>65</v>
       </c>
       <c r="W9">
-        <v>0.467</v>
+        <v>0.388</v>
       </c>
       <c r="X9">
-        <v>0.237</v>
+        <v>0.231</v>
       </c>
       <c r="Y9">
-        <v>0.725</v>
+        <v>0.833</v>
       </c>
       <c r="Z9">
-        <v>22.1</v>
+        <v>6</v>
       </c>
       <c r="AA9">
-        <v>10.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB9">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="AC9">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD9" t="s">
         <v>176</v>
@@ -1744,76 +1735,76 @@
         <v>21</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>706</v>
+        <v>82</v>
       </c>
       <c r="H10">
-        <v>19862</v>
+        <v>2348</v>
       </c>
       <c r="I10">
-        <v>2986</v>
+        <v>323</v>
       </c>
       <c r="J10">
-        <v>5585</v>
+        <v>606</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>25</v>
-      </c>
       <c r="M10">
-        <v>833</v>
+        <v>122</v>
       </c>
       <c r="N10">
-        <v>1495</v>
+        <v>194</v>
       </c>
       <c r="O10">
-        <v>1754</v>
+        <v>189</v>
       </c>
       <c r="P10">
-        <v>6112</v>
+        <v>573</v>
       </c>
       <c r="Q10">
-        <v>1546</v>
+        <v>192</v>
       </c>
       <c r="R10">
-        <v>442</v>
+        <v>49</v>
       </c>
       <c r="S10">
-        <v>1091</v>
+        <v>68</v>
       </c>
       <c r="T10">
-        <v>1204</v>
+        <v>125</v>
       </c>
       <c r="U10">
-        <v>2186</v>
+        <v>259</v>
       </c>
       <c r="V10">
-        <v>6808</v>
+        <v>768</v>
       </c>
       <c r="W10">
-        <v>0.535</v>
+        <v>0.533</v>
       </c>
       <c r="X10">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.5570000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="Z10">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="AA10">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AB10">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD10" t="s">
         <v>176</v>
@@ -1928,76 +1919,73 @@
         <v>18</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>338</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>82</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>418</v>
-      </c>
-      <c r="H12">
-        <v>10690</v>
-      </c>
-      <c r="I12">
-        <v>1917</v>
-      </c>
-      <c r="J12">
-        <v>3446</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="N12">
+        <v>27</v>
+      </c>
+      <c r="O12">
+        <v>34</v>
+      </c>
+      <c r="P12">
+        <v>80</v>
+      </c>
+      <c r="Q12">
         <v>9</v>
       </c>
-      <c r="M12">
-        <v>987</v>
-      </c>
-      <c r="N12">
-        <v>1431</v>
-      </c>
-      <c r="O12">
-        <v>1007</v>
-      </c>
-      <c r="P12">
-        <v>3221</v>
-      </c>
-      <c r="Q12">
-        <v>490</v>
-      </c>
       <c r="R12">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>657</v>
+        <v>22</v>
       </c>
       <c r="T12">
-        <v>644</v>
+        <v>17</v>
       </c>
       <c r="U12">
-        <v>1028</v>
+        <v>56</v>
       </c>
       <c r="V12">
-        <v>4822</v>
+        <v>74</v>
       </c>
       <c r="W12">
-        <v>0.556</v>
-      </c>
-      <c r="X12">
-        <v>0.111</v>
+        <v>0.402</v>
       </c>
       <c r="Y12">
-        <v>0.6899999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="Z12">
-        <v>25.6</v>
+        <v>7.3</v>
       </c>
       <c r="AA12">
-        <v>11.5</v>
+        <v>1.6</v>
       </c>
       <c r="AB12">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="AC12">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AD12" t="s">
         <v>176</v>
@@ -2020,76 +2008,76 @@
         <v>23</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>6611</v>
+        <v>162</v>
       </c>
       <c r="I13">
-        <v>1117</v>
+        <v>21</v>
       </c>
       <c r="J13">
-        <v>2529</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>603</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>755</v>
+        <v>16</v>
       </c>
       <c r="O13">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="Q13">
-        <v>1185</v>
+        <v>19</v>
       </c>
       <c r="R13">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="S13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>578</v>
+        <v>14</v>
       </c>
       <c r="U13">
-        <v>670</v>
+        <v>10</v>
       </c>
       <c r="V13">
-        <v>2921</v>
+        <v>54</v>
       </c>
       <c r="W13">
-        <v>0.442</v>
+        <v>0.404</v>
       </c>
       <c r="X13">
-        <v>0.272</v>
+        <v>0.222</v>
       </c>
       <c r="Y13">
-        <v>0.799</v>
+        <v>0.625</v>
       </c>
       <c r="Z13">
-        <v>18.4</v>
+        <v>10.8</v>
       </c>
       <c r="AA13">
-        <v>8.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB13">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="AD13" t="s">
         <v>176</v>
@@ -2112,76 +2100,76 @@
         <v>24</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>895</v>
+        <v>64</v>
       </c>
       <c r="H14">
-        <v>23643</v>
+        <v>1487</v>
       </c>
       <c r="I14">
-        <v>3038</v>
+        <v>132</v>
       </c>
       <c r="J14">
-        <v>6440</v>
+        <v>312</v>
       </c>
       <c r="K14">
-        <v>920</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>2260</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>925</v>
+        <v>78</v>
       </c>
       <c r="N14">
-        <v>1060</v>
+        <v>92</v>
       </c>
       <c r="O14">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="P14">
-        <v>2148</v>
+        <v>141</v>
       </c>
       <c r="Q14">
-        <v>5148</v>
+        <v>288</v>
       </c>
       <c r="R14">
-        <v>716</v>
+        <v>42</v>
       </c>
       <c r="S14">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>1339</v>
+        <v>101</v>
       </c>
       <c r="U14">
-        <v>1476</v>
+        <v>93</v>
       </c>
       <c r="V14">
-        <v>7921</v>
+        <v>349</v>
       </c>
       <c r="W14">
-        <v>0.472</v>
+        <v>0.423</v>
       </c>
       <c r="X14">
-        <v>0.407</v>
+        <v>0.163</v>
       </c>
       <c r="Y14">
-        <v>0.873</v>
+        <v>0.848</v>
       </c>
       <c r="Z14">
-        <v>26.4</v>
+        <v>23.2</v>
       </c>
       <c r="AA14">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="AB14">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AC14">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD14" t="s">
         <v>176</v>
@@ -2204,76 +2192,76 @@
         <v>23</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>246</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>69</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>57</v>
+      </c>
+      <c r="M15">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>179</v>
-      </c>
-      <c r="H15">
-        <v>2660</v>
-      </c>
-      <c r="I15">
-        <v>298</v>
-      </c>
-      <c r="J15">
-        <v>768</v>
-      </c>
-      <c r="K15">
-        <v>164</v>
-      </c>
-      <c r="L15">
-        <v>465</v>
-      </c>
-      <c r="M15">
-        <v>94</v>
-      </c>
       <c r="N15">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="Q15">
-        <v>432</v>
+        <v>16</v>
       </c>
       <c r="R15">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="V15">
-        <v>854</v>
+        <v>88</v>
       </c>
       <c r="W15">
-        <v>0.388</v>
+        <v>0.42</v>
       </c>
       <c r="X15">
-        <v>0.353</v>
+        <v>0.439</v>
       </c>
       <c r="Y15">
-        <v>0.847</v>
+        <v>0.833</v>
       </c>
       <c r="Z15">
-        <v>14.9</v>
+        <v>10.7</v>
       </c>
       <c r="AA15">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="AB15">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AC15">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD15" t="s">
         <v>176</v>
@@ -2296,76 +2284,73 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>2795</v>
+        <v>1031</v>
       </c>
       <c r="I16">
-        <v>488</v>
+        <v>175</v>
       </c>
       <c r="J16">
-        <v>958</v>
+        <v>334</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="N16">
-        <v>472</v>
+        <v>168</v>
       </c>
       <c r="O16">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="P16">
-        <v>689</v>
+        <v>229</v>
       </c>
       <c r="Q16">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="R16">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="S16">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="T16">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="U16">
-        <v>425</v>
+        <v>164</v>
       </c>
       <c r="V16">
-        <v>1348</v>
+        <v>486</v>
       </c>
       <c r="W16">
-        <v>0.509</v>
-      </c>
-      <c r="X16">
-        <v>0.5</v>
+        <v>0.524</v>
       </c>
       <c r="Y16">
-        <v>0.786</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z16">
-        <v>12.4</v>
+        <v>14.9</v>
       </c>
       <c r="AA16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB16">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD16" t="s">
         <v>176</v>
@@ -2388,76 +2373,76 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>833</v>
+        <v>49</v>
       </c>
       <c r="H17">
-        <v>29011</v>
+        <v>886</v>
       </c>
       <c r="I17">
-        <v>5723</v>
+        <v>132</v>
       </c>
       <c r="J17">
-        <v>12688</v>
+        <v>318</v>
       </c>
       <c r="K17">
-        <v>737</v>
+        <v>28</v>
       </c>
       <c r="L17">
-        <v>2349</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>2675</v>
+        <v>42</v>
       </c>
       <c r="N17">
-        <v>3463</v>
+        <v>59</v>
       </c>
       <c r="O17">
-        <v>520</v>
+        <v>22</v>
       </c>
       <c r="P17">
-        <v>2874</v>
+        <v>105</v>
       </c>
       <c r="Q17">
-        <v>3856</v>
+        <v>78</v>
       </c>
       <c r="R17">
-        <v>1409</v>
+        <v>32</v>
       </c>
       <c r="S17">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="T17">
-        <v>2246</v>
+        <v>58</v>
       </c>
       <c r="U17">
-        <v>1950</v>
+        <v>69</v>
       </c>
       <c r="V17">
-        <v>14858</v>
+        <v>334</v>
       </c>
       <c r="W17">
-        <v>0.451</v>
+        <v>0.415</v>
       </c>
       <c r="X17">
-        <v>0.314</v>
+        <v>0.341</v>
       </c>
       <c r="Y17">
-        <v>0.772</v>
+        <v>0.712</v>
       </c>
       <c r="Z17">
-        <v>34.8</v>
+        <v>18.1</v>
       </c>
       <c r="AA17">
-        <v>17.8</v>
+        <v>6.8</v>
       </c>
       <c r="AB17">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AC17">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="AD17" t="s">
         <v>176</v>
@@ -2480,76 +2465,76 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>1683</v>
+        <v>971</v>
       </c>
       <c r="I18">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="J18">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>78</v>
+      </c>
+      <c r="M18">
         <v>36</v>
       </c>
-      <c r="L18">
-        <v>122</v>
-      </c>
-      <c r="M18">
-        <v>71</v>
-      </c>
       <c r="N18">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="O18">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P18">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="Q18">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="R18">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="U18">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="V18">
-        <v>431</v>
+        <v>252</v>
       </c>
       <c r="W18">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
       <c r="X18">
-        <v>0.295</v>
+        <v>0.282</v>
       </c>
       <c r="Y18">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="Z18">
-        <v>13.3</v>
+        <v>14.7</v>
       </c>
       <c r="AA18">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB18">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC18">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD18" t="s">
         <v>176</v>
@@ -2664,76 +2649,76 @@
         <v>21</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>971</v>
+        <v>80</v>
       </c>
       <c r="H20">
-        <v>28829</v>
+        <v>2406</v>
       </c>
       <c r="I20">
-        <v>4105</v>
+        <v>345</v>
       </c>
       <c r="J20">
-        <v>9959</v>
+        <v>883</v>
       </c>
       <c r="K20">
-        <v>925</v>
+        <v>97</v>
       </c>
       <c r="L20">
-        <v>2813</v>
+        <v>271</v>
       </c>
       <c r="M20">
-        <v>1718</v>
+        <v>161</v>
       </c>
       <c r="N20">
-        <v>2175</v>
+        <v>222</v>
       </c>
       <c r="O20">
-        <v>552</v>
+        <v>77</v>
       </c>
       <c r="P20">
-        <v>2867</v>
+        <v>265</v>
       </c>
       <c r="Q20">
-        <v>5096</v>
+        <v>446</v>
       </c>
       <c r="R20">
-        <v>1144</v>
+        <v>102</v>
       </c>
       <c r="S20">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="T20">
-        <v>2008</v>
+        <v>182</v>
       </c>
       <c r="U20">
-        <v>1870</v>
+        <v>181</v>
       </c>
       <c r="V20">
-        <v>10853</v>
+        <v>948</v>
       </c>
       <c r="W20">
-        <v>0.412</v>
+        <v>0.391</v>
       </c>
       <c r="X20">
-        <v>0.329</v>
+        <v>0.358</v>
       </c>
       <c r="Y20">
-        <v>0.79</v>
+        <v>0.725</v>
       </c>
       <c r="Z20">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="AA20">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AC20">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AD20" t="s">
         <v>176</v>
@@ -2934,76 +2919,76 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>890</v>
+        <v>65</v>
       </c>
       <c r="H23">
-        <v>19772</v>
+        <v>1572</v>
       </c>
       <c r="I23">
-        <v>2931</v>
+        <v>305</v>
       </c>
       <c r="J23">
-        <v>6655</v>
+        <v>640</v>
       </c>
       <c r="K23">
-        <v>1049</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2706</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>875</v>
+        <v>189</v>
       </c>
       <c r="N23">
-        <v>1064</v>
+        <v>229</v>
       </c>
       <c r="O23">
-        <v>767</v>
+        <v>138</v>
       </c>
       <c r="P23">
-        <v>4002</v>
+        <v>374</v>
       </c>
       <c r="Q23">
-        <v>864</v>
+        <v>53</v>
       </c>
       <c r="R23">
-        <v>457</v>
+        <v>30</v>
       </c>
       <c r="S23">
-        <v>540</v>
+        <v>47</v>
       </c>
       <c r="T23">
-        <v>787</v>
+        <v>97</v>
       </c>
       <c r="U23">
-        <v>2255</v>
+        <v>200</v>
       </c>
       <c r="V23">
-        <v>7786</v>
+        <v>802</v>
       </c>
       <c r="W23">
-        <v>0.44</v>
+        <v>0.477</v>
       </c>
       <c r="X23">
-        <v>0.388</v>
+        <v>0.333</v>
       </c>
       <c r="Y23">
-        <v>0.822</v>
+        <v>0.825</v>
       </c>
       <c r="Z23">
-        <v>22.2</v>
+        <v>24.2</v>
       </c>
       <c r="AA23">
-        <v>8.699999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="AB23">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD23" t="s">
         <v>176</v>
@@ -3109,73 +3094,73 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>549</v>
+        <v>67</v>
       </c>
       <c r="H25">
-        <v>11853</v>
+        <v>1301</v>
       </c>
       <c r="I25">
-        <v>1564</v>
+        <v>130</v>
       </c>
       <c r="J25">
-        <v>3659</v>
+        <v>325</v>
       </c>
       <c r="K25">
-        <v>581</v>
+        <v>39</v>
       </c>
       <c r="L25">
-        <v>1627</v>
+        <v>137</v>
       </c>
       <c r="M25">
-        <v>614</v>
+        <v>78</v>
       </c>
       <c r="N25">
-        <v>768</v>
+        <v>101</v>
       </c>
       <c r="O25">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="P25">
-        <v>1400</v>
+        <v>185</v>
       </c>
       <c r="Q25">
-        <v>747</v>
+        <v>94</v>
       </c>
       <c r="R25">
-        <v>441</v>
+        <v>41</v>
       </c>
       <c r="S25">
-        <v>388</v>
+        <v>47</v>
       </c>
       <c r="T25">
-        <v>545</v>
+        <v>75</v>
       </c>
       <c r="U25">
-        <v>1229</v>
+        <v>135</v>
       </c>
       <c r="V25">
-        <v>4323</v>
+        <v>377</v>
       </c>
       <c r="W25">
-        <v>0.427</v>
+        <v>0.4</v>
       </c>
       <c r="X25">
-        <v>0.357</v>
+        <v>0.285</v>
       </c>
       <c r="Y25">
-        <v>0.799</v>
+        <v>0.772</v>
       </c>
       <c r="Z25">
-        <v>21.6</v>
+        <v>19.4</v>
       </c>
       <c r="AA25">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB25">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AC25">
         <v>1.4</v>
@@ -3201,76 +3186,76 @@
         <v>23</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>487</v>
+        <v>61</v>
       </c>
       <c r="H26">
-        <v>13463</v>
+        <v>1376</v>
       </c>
       <c r="I26">
-        <v>1891</v>
+        <v>173</v>
       </c>
       <c r="J26">
-        <v>4249</v>
+        <v>355</v>
       </c>
       <c r="K26">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>956</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>810</v>
+        <v>112</v>
       </c>
       <c r="N26">
-        <v>1014</v>
+        <v>149</v>
       </c>
       <c r="O26">
-        <v>617</v>
+        <v>102</v>
       </c>
       <c r="P26">
-        <v>2239</v>
+        <v>298</v>
       </c>
       <c r="Q26">
-        <v>712</v>
+        <v>58</v>
       </c>
       <c r="R26">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="S26">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="U26">
-        <v>942</v>
+        <v>83</v>
       </c>
       <c r="V26">
-        <v>4926</v>
+        <v>461</v>
       </c>
       <c r="W26">
-        <v>0.445</v>
+        <v>0.487</v>
       </c>
       <c r="X26">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="Y26">
-        <v>0.799</v>
+        <v>0.752</v>
       </c>
       <c r="Z26">
-        <v>27.6</v>
+        <v>22.6</v>
       </c>
       <c r="AA26">
-        <v>10.1</v>
+        <v>7.6</v>
       </c>
       <c r="AB26">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AC26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="s">
         <v>176</v>
@@ -3293,76 +3278,76 @@
         <v>23</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="H27">
-        <v>6117</v>
+        <v>1581</v>
       </c>
       <c r="I27">
-        <v>857</v>
+        <v>198</v>
       </c>
       <c r="J27">
-        <v>1776</v>
+        <v>414</v>
       </c>
       <c r="K27">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="L27">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="M27">
-        <v>471</v>
+        <v>108</v>
       </c>
       <c r="N27">
-        <v>578</v>
+        <v>133</v>
       </c>
       <c r="O27">
-        <v>272</v>
+        <v>57</v>
       </c>
       <c r="P27">
-        <v>1058</v>
+        <v>244</v>
       </c>
       <c r="Q27">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="R27">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="S27">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T27">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="U27">
-        <v>804</v>
+        <v>228</v>
       </c>
       <c r="V27">
-        <v>2239</v>
+        <v>533</v>
       </c>
       <c r="W27">
-        <v>0.483</v>
+        <v>0.478</v>
       </c>
       <c r="X27">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="Y27">
-        <v>0.8149999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="Z27">
-        <v>16.2</v>
+        <v>19.8</v>
       </c>
       <c r="AA27">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB27">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC27">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD27" t="s">
         <v>176</v>
@@ -3385,76 +3370,76 @@
         <v>23</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>2915</v>
+        <v>175</v>
       </c>
       <c r="I28">
-        <v>378</v>
+        <v>21</v>
       </c>
       <c r="J28">
-        <v>848</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="N28">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="O28">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>424</v>
+        <v>27</v>
       </c>
       <c r="Q28">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="R28">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="U28">
-        <v>352</v>
+        <v>31</v>
       </c>
       <c r="V28">
-        <v>966</v>
+        <v>58</v>
       </c>
       <c r="W28">
-        <v>0.446</v>
+        <v>0.389</v>
       </c>
       <c r="X28">
-        <v>0.308</v>
+        <v>0.2</v>
       </c>
       <c r="Y28">
-        <v>0.766</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="Z28">
-        <v>12.2</v>
+        <v>8</v>
       </c>
       <c r="AA28">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="AB28">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AC28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD28" t="s">
         <v>176</v>
@@ -3477,76 +3462,76 @@
         <v>22</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="H29">
-        <v>18487</v>
+        <v>1765</v>
       </c>
       <c r="I29">
-        <v>3332</v>
+        <v>221</v>
       </c>
       <c r="J29">
-        <v>7672</v>
+        <v>478</v>
       </c>
       <c r="K29">
-        <v>1006</v>
+        <v>30</v>
       </c>
       <c r="L29">
-        <v>2644</v>
+        <v>93</v>
       </c>
       <c r="M29">
-        <v>2185</v>
+        <v>115</v>
       </c>
       <c r="N29">
-        <v>2577</v>
+        <v>148</v>
       </c>
       <c r="O29">
-        <v>674</v>
+        <v>131</v>
       </c>
       <c r="P29">
-        <v>2888</v>
+        <v>384</v>
       </c>
       <c r="Q29">
-        <v>1097</v>
+        <v>90</v>
       </c>
       <c r="R29">
-        <v>561</v>
+        <v>58</v>
       </c>
       <c r="S29">
-        <v>481</v>
+        <v>62</v>
       </c>
       <c r="T29">
-        <v>1098</v>
+        <v>80</v>
       </c>
       <c r="U29">
-        <v>1628</v>
+        <v>211</v>
       </c>
       <c r="V29">
-        <v>9855</v>
+        <v>587</v>
       </c>
       <c r="W29">
-        <v>0.434</v>
+        <v>0.462</v>
       </c>
       <c r="X29">
-        <v>0.38</v>
+        <v>0.323</v>
       </c>
       <c r="Y29">
-        <v>0.848</v>
+        <v>0.777</v>
       </c>
       <c r="Z29">
-        <v>31.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA29">
-        <v>16.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB29">
         <v>4.9</v>
       </c>
       <c r="AC29">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD29" t="s">
         <v>176</v>
@@ -3661,76 +3646,76 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>658</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>13026</v>
+        <v>374</v>
       </c>
       <c r="I31">
-        <v>2312</v>
+        <v>66</v>
       </c>
       <c r="J31">
-        <v>5546</v>
+        <v>138</v>
       </c>
       <c r="K31">
-        <v>962</v>
+        <v>6</v>
       </c>
       <c r="L31">
-        <v>2668</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>826</v>
+        <v>29</v>
       </c>
       <c r="N31">
-        <v>1010</v>
+        <v>37</v>
       </c>
       <c r="O31">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="P31">
-        <v>1639</v>
+        <v>41</v>
       </c>
       <c r="Q31">
-        <v>596</v>
+        <v>18</v>
       </c>
       <c r="R31">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="S31">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>721</v>
+        <v>22</v>
       </c>
       <c r="U31">
-        <v>1228</v>
+        <v>41</v>
       </c>
       <c r="V31">
-        <v>6412</v>
+        <v>167</v>
       </c>
       <c r="W31">
-        <v>0.417</v>
+        <v>0.478</v>
       </c>
       <c r="X31">
-        <v>0.361</v>
+        <v>0.3</v>
       </c>
       <c r="Y31">
-        <v>0.8179999999999999</v>
+        <v>0.784</v>
       </c>
       <c r="Z31">
-        <v>19.8</v>
+        <v>11.7</v>
       </c>
       <c r="AA31">
-        <v>9.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AB31">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AC31">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="s">
         <v>176</v>
@@ -3753,76 +3738,76 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="H32">
-        <v>1555</v>
+        <v>1235</v>
       </c>
       <c r="I32">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="K32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="N32">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="O32">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P32">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="Q32">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="R32">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="S32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="U32">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="V32">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="W32">
-        <v>0.387</v>
+        <v>0.395</v>
       </c>
       <c r="X32">
-        <v>0.212</v>
+        <v>0.225</v>
       </c>
       <c r="Y32">
-        <v>0.642</v>
+        <v>0.662</v>
       </c>
       <c r="Z32">
-        <v>11.9</v>
+        <v>15.4</v>
       </c>
       <c r="AA32">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AB32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AC32">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD32" t="s">
         <v>176</v>
@@ -3937,76 +3922,76 @@
         <v>22</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>644</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>11815</v>
+        <v>535</v>
       </c>
       <c r="I34">
-        <v>1047</v>
+        <v>59</v>
       </c>
       <c r="J34">
-        <v>2104</v>
+        <v>105</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <v>45</v>
+      </c>
+      <c r="O34">
+        <v>67</v>
+      </c>
+      <c r="P34">
+        <v>179</v>
+      </c>
+      <c r="Q34">
         <v>14</v>
       </c>
-      <c r="M34">
-        <v>316</v>
-      </c>
-      <c r="N34">
-        <v>510</v>
-      </c>
-      <c r="O34">
-        <v>1119</v>
-      </c>
-      <c r="P34">
-        <v>3243</v>
-      </c>
-      <c r="Q34">
-        <v>781</v>
-      </c>
       <c r="R34">
-        <v>478</v>
+        <v>26</v>
       </c>
       <c r="S34">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="T34">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="U34">
-        <v>1485</v>
+        <v>76</v>
       </c>
       <c r="V34">
-        <v>2410</v>
+        <v>147</v>
       </c>
       <c r="W34">
-        <v>0.498</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.62</v>
+        <v>0.644</v>
       </c>
       <c r="Z34">
-        <v>18.3</v>
+        <v>13.4</v>
       </c>
       <c r="AA34">
         <v>3.7</v>
       </c>
       <c r="AB34">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AC34">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD34" t="s">
         <v>176</v>
@@ -4029,76 +4014,76 @@
         <v>23</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="H35">
-        <v>7797</v>
+        <v>2310</v>
       </c>
       <c r="I35">
-        <v>1025</v>
+        <v>254</v>
       </c>
       <c r="J35">
-        <v>2426</v>
+        <v>630</v>
       </c>
       <c r="K35">
-        <v>451</v>
+        <v>113</v>
       </c>
       <c r="L35">
-        <v>1162</v>
+        <v>313</v>
       </c>
       <c r="M35">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="N35">
-        <v>441</v>
+        <v>123</v>
       </c>
       <c r="O35">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="P35">
-        <v>845</v>
+        <v>266</v>
       </c>
       <c r="Q35">
-        <v>747</v>
+        <v>215</v>
       </c>
       <c r="R35">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="S35">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="T35">
-        <v>437</v>
+        <v>119</v>
       </c>
       <c r="U35">
-        <v>510</v>
+        <v>169</v>
       </c>
       <c r="V35">
-        <v>2842</v>
+        <v>707</v>
       </c>
       <c r="W35">
-        <v>0.423</v>
+        <v>0.403</v>
       </c>
       <c r="X35">
-        <v>0.388</v>
+        <v>0.361</v>
       </c>
       <c r="Y35">
-        <v>0.773</v>
+        <v>0.699</v>
       </c>
       <c r="Z35">
-        <v>22.4</v>
+        <v>28.9</v>
       </c>
       <c r="AA35">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB35">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC35">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD35" t="s">
         <v>176</v>
@@ -4121,73 +4106,73 @@
         <v>22</v>
       </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>33</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="G36">
-        <v>23</v>
-      </c>
-      <c r="H36">
-        <v>98</v>
-      </c>
-      <c r="I36">
-        <v>11</v>
-      </c>
-      <c r="J36">
-        <v>25</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <v>12</v>
-      </c>
-      <c r="O36">
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>8</v>
+      </c>
+      <c r="U36">
         <v>7</v>
       </c>
-      <c r="P36">
-        <v>15</v>
-      </c>
-      <c r="Q36">
-        <v>18</v>
-      </c>
-      <c r="R36">
-        <v>6</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>11</v>
-      </c>
-      <c r="U36">
+      <c r="V36">
         <v>13</v>
       </c>
-      <c r="V36">
-        <v>28</v>
-      </c>
       <c r="W36">
-        <v>0.44</v>
+        <v>0.385</v>
       </c>
       <c r="Y36">
+        <v>0.375</v>
+      </c>
+      <c r="Z36">
+        <v>2.4</v>
+      </c>
+      <c r="AA36">
+        <v>0.9</v>
+      </c>
+      <c r="AB36">
         <v>0.5</v>
       </c>
-      <c r="Z36">
-        <v>4.3</v>
-      </c>
-      <c r="AA36">
-        <v>1.2</v>
-      </c>
-      <c r="AB36">
-        <v>0.7</v>
-      </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD36" t="s">
         <v>176</v>
@@ -4296,76 +4281,76 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>867</v>
+        <v>79</v>
       </c>
       <c r="H38">
-        <v>24140</v>
+        <v>1599</v>
       </c>
       <c r="I38">
-        <v>3374</v>
+        <v>189</v>
       </c>
       <c r="J38">
-        <v>7673</v>
+        <v>428</v>
       </c>
       <c r="K38">
-        <v>620</v>
+        <v>20</v>
       </c>
       <c r="L38">
-        <v>1809</v>
+        <v>76</v>
       </c>
       <c r="M38">
-        <v>1981</v>
+        <v>128</v>
       </c>
       <c r="N38">
-        <v>2316</v>
+        <v>160</v>
       </c>
       <c r="O38">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="P38">
-        <v>2487</v>
+        <v>160</v>
       </c>
       <c r="Q38">
-        <v>3952</v>
+        <v>219</v>
       </c>
       <c r="R38">
-        <v>683</v>
+        <v>41</v>
       </c>
       <c r="S38">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>1723</v>
+        <v>102</v>
       </c>
       <c r="U38">
-        <v>1583</v>
+        <v>138</v>
       </c>
       <c r="V38">
-        <v>9349</v>
+        <v>526</v>
       </c>
       <c r="W38">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="X38">
-        <v>0.343</v>
+        <v>0.263</v>
       </c>
       <c r="Y38">
-        <v>0.855</v>
+        <v>0.8</v>
       </c>
       <c r="Z38">
-        <v>27.8</v>
+        <v>20.2</v>
       </c>
       <c r="AA38">
-        <v>10.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB38">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AC38">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD38" t="s">
         <v>176</v>
@@ -4388,76 +4373,76 @@
         <v>29</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>75</v>
+      </c>
+      <c r="H39">
+        <v>1557</v>
+      </c>
+      <c r="I39">
+        <v>170</v>
+      </c>
+      <c r="J39">
+        <v>429</v>
+      </c>
+      <c r="K39">
+        <v>86</v>
+      </c>
+      <c r="L39">
+        <v>236</v>
+      </c>
+      <c r="M39">
+        <v>121</v>
+      </c>
+      <c r="N39">
+        <v>133</v>
+      </c>
+      <c r="O39">
+        <v>19</v>
+      </c>
+      <c r="P39">
+        <v>153</v>
+      </c>
+      <c r="Q39">
+        <v>227</v>
+      </c>
+      <c r="R39">
+        <v>40</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>116</v>
+      </c>
+      <c r="U39">
+        <v>108</v>
+      </c>
+      <c r="V39">
+        <v>547</v>
+      </c>
+      <c r="W39">
+        <v>0.396</v>
+      </c>
+      <c r="X39">
+        <v>0.364</v>
+      </c>
+      <c r="Y39">
+        <v>0.91</v>
+      </c>
+      <c r="Z39">
+        <v>20.8</v>
+      </c>
+      <c r="AA39">
+        <v>7.3</v>
+      </c>
+      <c r="AB39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>138</v>
-      </c>
-      <c r="H39">
-        <v>2530</v>
-      </c>
-      <c r="I39">
-        <v>298</v>
-      </c>
-      <c r="J39">
-        <v>751</v>
-      </c>
-      <c r="K39">
-        <v>130</v>
-      </c>
-      <c r="L39">
-        <v>366</v>
-      </c>
-      <c r="M39">
-        <v>207</v>
-      </c>
-      <c r="N39">
-        <v>228</v>
-      </c>
-      <c r="O39">
-        <v>34</v>
-      </c>
-      <c r="P39">
-        <v>222</v>
-      </c>
-      <c r="Q39">
-        <v>399</v>
-      </c>
-      <c r="R39">
-        <v>66</v>
-      </c>
-      <c r="S39">
-        <v>5</v>
-      </c>
-      <c r="T39">
-        <v>206</v>
-      </c>
-      <c r="U39">
-        <v>183</v>
-      </c>
-      <c r="V39">
-        <v>933</v>
-      </c>
-      <c r="W39">
-        <v>0.397</v>
-      </c>
-      <c r="X39">
-        <v>0.355</v>
-      </c>
-      <c r="Y39">
-        <v>0.908</v>
-      </c>
-      <c r="Z39">
-        <v>18.3</v>
-      </c>
-      <c r="AA39">
-        <v>6.8</v>
-      </c>
-      <c r="AB39">
-        <v>1.6</v>
-      </c>
       <c r="AC39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD39" t="s">
         <v>176</v>
@@ -4480,76 +4465,76 @@
         <v>18</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>870</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>18323</v>
+        <v>39</v>
       </c>
       <c r="I40">
-        <v>2558</v>
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>4490</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>879</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>1307</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>1723</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4692</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>1073</v>
+        <v>3</v>
       </c>
       <c r="R40">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>839</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>932</v>
+        <v>4</v>
       </c>
       <c r="U40">
-        <v>2578</v>
+        <v>7</v>
       </c>
       <c r="V40">
-        <v>6102</v>
+        <v>20</v>
       </c>
       <c r="W40">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="X40">
-        <v>0.332</v>
+        <v>0.667</v>
       </c>
       <c r="Y40">
-        <v>0.673</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>21.1</v>
+        <v>13</v>
       </c>
       <c r="AA40">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AB40">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="AC40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="s">
         <v>176</v>
@@ -4572,73 +4557,70 @@
         <v>22</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H41">
-        <v>636</v>
+        <v>87</v>
       </c>
       <c r="I41">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="N41">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="O41">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="P41">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="V41">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="W41">
-        <v>0.508</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y41">
-        <v>0.494</v>
+        <v>0.462</v>
       </c>
       <c r="Z41">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA41">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AC41">
         <v>0.1</v>
@@ -4664,76 +4646,76 @@
         <v>21</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>409</v>
+        <v>61</v>
       </c>
       <c r="H42">
-        <v>8185</v>
+        <v>519</v>
       </c>
       <c r="I42">
-        <v>1268</v>
+        <v>77</v>
       </c>
       <c r="J42">
-        <v>2912</v>
+        <v>173</v>
       </c>
       <c r="K42">
-        <v>387</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>1154</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>638</v>
+        <v>57</v>
       </c>
       <c r="N42">
-        <v>836</v>
+        <v>81</v>
       </c>
       <c r="O42">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="P42">
-        <v>1470</v>
+        <v>116</v>
       </c>
       <c r="Q42">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c r="R42">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="S42">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="T42">
-        <v>409</v>
+        <v>16</v>
       </c>
       <c r="U42">
-        <v>886</v>
+        <v>87</v>
       </c>
       <c r="V42">
-        <v>3561</v>
+        <v>213</v>
       </c>
       <c r="W42">
-        <v>0.435</v>
+        <v>0.445</v>
       </c>
       <c r="X42">
-        <v>0.335</v>
+        <v>0.154</v>
       </c>
       <c r="Y42">
-        <v>0.763</v>
+        <v>0.704</v>
       </c>
       <c r="Z42">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="AA42">
-        <v>8.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="AB42">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC42">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD42" t="s">
         <v>176</v>
@@ -4756,67 +4738,67 @@
         <v>18</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
+      </c>
+      <c r="H43">
+        <v>127</v>
+      </c>
+      <c r="I43">
+        <v>9</v>
+      </c>
+      <c r="J43">
+        <v>30</v>
+      </c>
+      <c r="K43">
         <v>2</v>
       </c>
-      <c r="G43">
-        <v>34</v>
-      </c>
-      <c r="H43">
-        <v>168</v>
-      </c>
-      <c r="I43">
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
         <v>13</v>
       </c>
-      <c r="J43">
-        <v>46</v>
-      </c>
-      <c r="K43">
+      <c r="Q43">
+        <v>9</v>
+      </c>
+      <c r="R43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>12</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <v>16</v>
-      </c>
-      <c r="O43">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <v>6</v>
-      </c>
-      <c r="P43">
-        <v>16</v>
-      </c>
-      <c r="Q43">
-        <v>13</v>
-      </c>
-      <c r="R43">
-        <v>6</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>7</v>
       </c>
       <c r="U43">
         <v>11</v>
       </c>
       <c r="V43">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="W43">
-        <v>0.283</v>
+        <v>0.3</v>
       </c>
       <c r="X43">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="Y43">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="Z43">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AA43">
         <v>1.1</v>
@@ -4848,76 +4830,73 @@
         <v>22</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>829</v>
+        <v>67</v>
       </c>
       <c r="H44">
-        <v>24293</v>
+        <v>1129</v>
       </c>
       <c r="I44">
-        <v>4587</v>
+        <v>137</v>
       </c>
       <c r="J44">
-        <v>8566</v>
+        <v>230</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>2057</v>
+        <v>71</v>
       </c>
       <c r="N44">
-        <v>2666</v>
+        <v>123</v>
       </c>
       <c r="O44">
-        <v>2150</v>
+        <v>109</v>
       </c>
       <c r="P44">
-        <v>7320</v>
+        <v>303</v>
       </c>
       <c r="Q44">
-        <v>1825</v>
+        <v>43</v>
       </c>
       <c r="R44">
-        <v>625</v>
+        <v>30</v>
       </c>
       <c r="S44">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="T44">
-        <v>1454</v>
+        <v>51</v>
       </c>
       <c r="U44">
-        <v>2170</v>
+        <v>124</v>
       </c>
       <c r="V44">
-        <v>11232</v>
+        <v>345</v>
       </c>
       <c r="W44">
-        <v>0.535</v>
-      </c>
-      <c r="X44">
-        <v>0.034</v>
+        <v>0.596</v>
       </c>
       <c r="Y44">
-        <v>0.772</v>
+        <v>0.577</v>
       </c>
       <c r="Z44">
-        <v>29.3</v>
+        <v>16.9</v>
       </c>
       <c r="AA44">
-        <v>13.5</v>
+        <v>5.1</v>
       </c>
       <c r="AB44">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AC44">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD44" t="s">
         <v>176</v>
@@ -4940,76 +4919,73 @@
         <v>23</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="H45">
-        <v>2927</v>
+        <v>107</v>
       </c>
       <c r="I45">
-        <v>454</v>
+        <v>14</v>
       </c>
       <c r="J45">
-        <v>1185</v>
+        <v>36</v>
       </c>
       <c r="K45">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>474</v>
+        <v>9</v>
       </c>
       <c r="M45">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="P45">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="Q45">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="R45">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="U45">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="V45">
-        <v>1147</v>
+        <v>30</v>
       </c>
       <c r="W45">
-        <v>0.383</v>
+        <v>0.389</v>
       </c>
       <c r="X45">
-        <v>0.344</v>
-      </c>
-      <c r="Y45">
-        <v>0.768</v>
+        <v>0.222</v>
       </c>
       <c r="Z45">
-        <v>12.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA45">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC45">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD45" t="s">
         <v>176</v>
@@ -5124,73 +5100,73 @@
         <v>23</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H47">
-        <v>602</v>
+        <v>241</v>
       </c>
       <c r="I47">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J47">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N47">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="O47">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P47">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="R47">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T47">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="U47">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="V47">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="W47">
-        <v>0.376</v>
+        <v>0.4</v>
       </c>
       <c r="X47">
-        <v>0.238</v>
+        <v>0.333</v>
       </c>
       <c r="Y47">
-        <v>0.716</v>
+        <v>0.759</v>
       </c>
       <c r="Z47">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AA47">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AC47">
         <v>0.4</v>
@@ -5216,76 +5192,73 @@
         <v>22</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>618</v>
+        <v>26</v>
       </c>
       <c r="H48">
-        <v>11379</v>
+        <v>159</v>
       </c>
       <c r="I48">
-        <v>1398</v>
+        <v>23</v>
       </c>
       <c r="J48">
-        <v>2823</v>
+        <v>54</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>42</v>
+      </c>
+      <c r="O48">
+        <v>12</v>
+      </c>
+      <c r="P48">
+        <v>28</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="S48">
         <v>5</v>
       </c>
-      <c r="M48">
-        <v>685</v>
-      </c>
-      <c r="N48">
-        <v>1214</v>
-      </c>
-      <c r="O48">
-        <v>1048</v>
-      </c>
-      <c r="P48">
-        <v>2576</v>
-      </c>
-      <c r="Q48">
-        <v>266</v>
-      </c>
-      <c r="R48">
-        <v>230</v>
-      </c>
-      <c r="S48">
-        <v>490</v>
-      </c>
       <c r="T48">
-        <v>487</v>
+        <v>11</v>
       </c>
       <c r="U48">
-        <v>1197</v>
+        <v>14</v>
       </c>
       <c r="V48">
-        <v>3481</v>
+        <v>60</v>
       </c>
       <c r="W48">
-        <v>0.495</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
+        <v>0.426</v>
       </c>
       <c r="Y48">
-        <v>0.5639999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z48">
-        <v>18.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA48">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="AB48">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC48">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD48" t="s">
         <v>176</v>
@@ -5308,73 +5281,73 @@
         <v>21</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H49">
-        <v>1868</v>
+        <v>398</v>
       </c>
       <c r="I49">
-        <v>324</v>
+        <v>70</v>
       </c>
       <c r="J49">
-        <v>708</v>
+        <v>171</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M49">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="N49">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="O49">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="P49">
-        <v>481</v>
+        <v>109</v>
       </c>
       <c r="Q49">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="R49">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="S49">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="T49">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="U49">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="V49">
-        <v>821</v>
+        <v>189</v>
       </c>
       <c r="W49">
-        <v>0.458</v>
+        <v>0.409</v>
       </c>
       <c r="X49">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>0.746</v>
+        <v>0.766</v>
       </c>
       <c r="Z49">
-        <v>15.7</v>
+        <v>17.3</v>
       </c>
       <c r="AA49">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB49">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AC49">
         <v>1</v>
@@ -5400,76 +5373,76 @@
         <v>21</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="H50">
-        <v>5037</v>
+        <v>1362</v>
       </c>
       <c r="I50">
-        <v>923</v>
+        <v>241</v>
       </c>
       <c r="J50">
-        <v>2144</v>
+        <v>535</v>
       </c>
       <c r="K50">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="L50">
-        <v>793</v>
+        <v>180</v>
       </c>
       <c r="M50">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="N50">
-        <v>460</v>
+        <v>106</v>
       </c>
       <c r="O50">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="P50">
-        <v>506</v>
+        <v>143</v>
       </c>
       <c r="Q50">
-        <v>331</v>
+        <v>63</v>
       </c>
       <c r="R50">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="S50">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="T50">
-        <v>362</v>
+        <v>86</v>
       </c>
       <c r="U50">
-        <v>584</v>
+        <v>176</v>
       </c>
       <c r="V50">
-        <v>2479</v>
+        <v>627</v>
       </c>
       <c r="W50">
-        <v>0.431</v>
+        <v>0.45</v>
       </c>
       <c r="X50">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="Y50">
-        <v>0.741</v>
+        <v>0.736</v>
       </c>
       <c r="Z50">
-        <v>20.2</v>
+        <v>17.2</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AB50">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC50">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD50" t="s">
         <v>176</v>
@@ -5581,76 +5554,76 @@
         <v>18</v>
       </c>
       <c r="F52">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>848</v>
+        <v>23</v>
       </c>
       <c r="H52">
-        <v>17282</v>
+        <v>203</v>
       </c>
       <c r="I52">
-        <v>2883</v>
+        <v>28</v>
       </c>
       <c r="J52">
-        <v>7016</v>
+        <v>76</v>
       </c>
       <c r="K52">
-        <v>1250</v>
+        <v>5</v>
       </c>
       <c r="L52">
-        <v>3487</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>1092</v>
+        <v>18</v>
       </c>
       <c r="N52">
-        <v>1350</v>
+        <v>24</v>
       </c>
       <c r="O52">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="P52">
-        <v>2011</v>
+        <v>38</v>
       </c>
       <c r="Q52">
-        <v>914</v>
+        <v>16</v>
       </c>
       <c r="R52">
-        <v>601</v>
+        <v>7</v>
       </c>
       <c r="S52">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>724</v>
+        <v>9</v>
       </c>
       <c r="U52">
-        <v>1791</v>
+        <v>20</v>
       </c>
       <c r="V52">
-        <v>8108</v>
+        <v>79</v>
       </c>
       <c r="W52">
-        <v>0.411</v>
+        <v>0.368</v>
       </c>
       <c r="X52">
-        <v>0.358</v>
+        <v>0.25</v>
       </c>
       <c r="Y52">
-        <v>0.8090000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z52">
-        <v>20.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA52">
-        <v>9.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB52">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC52">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD52" t="s">
         <v>176</v>
@@ -5857,76 +5830,76 @@
         <v>30</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>336</v>
+        <v>59</v>
       </c>
       <c r="H55">
-        <v>4871</v>
+        <v>490</v>
       </c>
       <c r="I55">
-        <v>481</v>
+        <v>44</v>
       </c>
       <c r="J55">
-        <v>835</v>
+        <v>93</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="N55">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="O55">
-        <v>443</v>
+        <v>57</v>
       </c>
       <c r="P55">
-        <v>1175</v>
+        <v>123</v>
       </c>
       <c r="Q55">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="R55">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="S55">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="T55">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="U55">
-        <v>733</v>
+        <v>91</v>
       </c>
       <c r="V55">
-        <v>1081</v>
+        <v>103</v>
       </c>
       <c r="W55">
-        <v>0.576</v>
+        <v>0.473</v>
       </c>
       <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.617</v>
+        <v>0.556</v>
       </c>
       <c r="Z55">
-        <v>14.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA55">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="AB55">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AC55">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD55" t="s">
         <v>176</v>
@@ -5949,76 +5922,76 @@
         <v>25</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H56">
-        <v>602</v>
+        <v>210</v>
       </c>
       <c r="I56">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="J56">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56">
+        <v>18</v>
+      </c>
+      <c r="O56">
+        <v>11</v>
+      </c>
+      <c r="P56">
         <v>21</v>
       </c>
-      <c r="L56">
-        <v>56</v>
-      </c>
-      <c r="M56">
-        <v>37</v>
-      </c>
-      <c r="N56">
-        <v>52</v>
-      </c>
-      <c r="O56">
-        <v>24</v>
-      </c>
-      <c r="P56">
-        <v>68</v>
-      </c>
       <c r="Q56">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="R56">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>13</v>
+      </c>
+      <c r="U56">
+        <v>25</v>
+      </c>
+      <c r="V56">
+        <v>69</v>
+      </c>
+      <c r="W56">
+        <v>0.365</v>
+      </c>
+      <c r="X56">
+        <v>0.188</v>
+      </c>
+      <c r="Y56">
+        <v>0.667</v>
+      </c>
+      <c r="Z56">
+        <v>9.1</v>
+      </c>
+      <c r="AA56">
         <v>3</v>
       </c>
-      <c r="T56">
-        <v>37</v>
-      </c>
-      <c r="U56">
-        <v>62</v>
-      </c>
-      <c r="V56">
-        <v>192</v>
-      </c>
-      <c r="W56">
-        <v>0.37</v>
-      </c>
-      <c r="X56">
-        <v>0.375</v>
-      </c>
-      <c r="Y56">
-        <v>0.712</v>
-      </c>
-      <c r="Z56">
-        <v>11.1</v>
-      </c>
-      <c r="AA56">
-        <v>3.6</v>
-      </c>
       <c r="AB56">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD56" t="s">
         <v>176</v>
@@ -6041,76 +6014,76 @@
         <v>20</v>
       </c>
       <c r="F57">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>1014</v>
+        <v>78</v>
       </c>
       <c r="H57">
-        <v>35380</v>
+        <v>2808</v>
       </c>
       <c r="I57">
-        <v>6563</v>
+        <v>407</v>
       </c>
       <c r="J57">
-        <v>13948</v>
+        <v>947</v>
       </c>
       <c r="K57">
-        <v>1370</v>
+        <v>50</v>
       </c>
       <c r="L57">
-        <v>3706</v>
+        <v>177</v>
       </c>
       <c r="M57">
-        <v>4233</v>
+        <v>394</v>
       </c>
       <c r="N57">
-        <v>4866</v>
+        <v>465</v>
       </c>
       <c r="O57">
-        <v>663</v>
+        <v>61</v>
       </c>
       <c r="P57">
-        <v>4579</v>
+        <v>400</v>
       </c>
       <c r="Q57">
-        <v>9614</v>
+        <v>611</v>
       </c>
       <c r="R57">
-        <v>2222</v>
+        <v>175</v>
       </c>
       <c r="S57">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="T57">
-        <v>2444</v>
+        <v>183</v>
       </c>
       <c r="U57">
-        <v>2482</v>
+        <v>218</v>
       </c>
       <c r="V57">
-        <v>18729</v>
+        <v>1258</v>
       </c>
       <c r="W57">
-        <v>0.471</v>
+        <v>0.43</v>
       </c>
       <c r="X57">
-        <v>0.37</v>
+        <v>0.282</v>
       </c>
       <c r="Y57">
-        <v>0.87</v>
+        <v>0.847</v>
       </c>
       <c r="Z57">
-        <v>34.9</v>
+        <v>36</v>
       </c>
       <c r="AA57">
-        <v>18.5</v>
+        <v>16.1</v>
       </c>
       <c r="AB57">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AC57">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD57" t="s">
         <v>176</v>
@@ -6133,76 +6106,73 @@
         <v>20</v>
       </c>
       <c r="F58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>473</v>
+        <v>68</v>
       </c>
       <c r="H58">
-        <v>7262</v>
+        <v>1282</v>
       </c>
       <c r="I58">
-        <v>976</v>
+        <v>153</v>
       </c>
       <c r="J58">
-        <v>2114</v>
+        <v>300</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="N58">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="O58">
-        <v>536</v>
+        <v>109</v>
       </c>
       <c r="P58">
-        <v>1836</v>
+        <v>296</v>
       </c>
       <c r="Q58">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="R58">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="S58">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c r="T58">
-        <v>374</v>
+        <v>60</v>
       </c>
       <c r="U58">
-        <v>1158</v>
+        <v>213</v>
       </c>
       <c r="V58">
-        <v>2202</v>
+        <v>353</v>
       </c>
       <c r="W58">
-        <v>0.462</v>
-      </c>
-      <c r="X58">
-        <v>0.154</v>
+        <v>0.51</v>
       </c>
       <c r="Y58">
-        <v>0.678</v>
+        <v>0.627</v>
       </c>
       <c r="Z58">
-        <v>15.4</v>
+        <v>18.9</v>
       </c>
       <c r="AA58">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AB58">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD58" t="s">
         <v>176</v>
@@ -6225,76 +6195,73 @@
         <v>23</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>37</v>
+      </c>
+      <c r="H59">
+        <v>429</v>
+      </c>
+      <c r="I59">
+        <v>37</v>
+      </c>
+      <c r="J59">
+        <v>81</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>36</v>
+      </c>
+      <c r="N59">
+        <v>45</v>
+      </c>
+      <c r="O59">
+        <v>28</v>
+      </c>
+      <c r="P59">
+        <v>81</v>
+      </c>
+      <c r="Q59">
+        <v>9</v>
+      </c>
+      <c r="R59">
         <v>7</v>
       </c>
-      <c r="G59">
-        <v>316</v>
-      </c>
-      <c r="H59">
-        <v>3966</v>
-      </c>
-      <c r="I59">
-        <v>498</v>
-      </c>
-      <c r="J59">
-        <v>1136</v>
-      </c>
-      <c r="K59">
-        <v>7</v>
-      </c>
-      <c r="L59">
-        <v>20</v>
-      </c>
-      <c r="M59">
-        <v>223</v>
-      </c>
-      <c r="N59">
-        <v>300</v>
-      </c>
-      <c r="O59">
-        <v>331</v>
-      </c>
-      <c r="P59">
-        <v>932</v>
-      </c>
-      <c r="Q59">
-        <v>161</v>
-      </c>
-      <c r="R59">
-        <v>49</v>
-      </c>
       <c r="S59">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="T59">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="U59">
-        <v>491</v>
+        <v>52</v>
       </c>
       <c r="V59">
-        <v>1226</v>
+        <v>110</v>
       </c>
       <c r="W59">
-        <v>0.438</v>
-      </c>
-      <c r="X59">
-        <v>0.35</v>
+        <v>0.457</v>
       </c>
       <c r="Y59">
-        <v>0.743</v>
+        <v>0.8</v>
       </c>
       <c r="Z59">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
       <c r="AA59">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="AB59">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AC59">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD59" t="s">
         <v>176</v>
@@ -6317,76 +6284,76 @@
         <v>22</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>29</v>
+      </c>
+      <c r="H60">
+        <v>150</v>
+      </c>
+      <c r="I60">
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>58</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+      <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60">
         <v>12</v>
       </c>
-      <c r="G60">
-        <v>544</v>
-      </c>
-      <c r="H60">
-        <v>7293</v>
-      </c>
-      <c r="I60">
-        <v>738</v>
-      </c>
-      <c r="J60">
-        <v>1980</v>
-      </c>
-      <c r="K60">
-        <v>244</v>
-      </c>
-      <c r="L60">
-        <v>808</v>
-      </c>
-      <c r="M60">
-        <v>295</v>
-      </c>
       <c r="N60">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="O60">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>658</v>
+        <v>15</v>
       </c>
       <c r="Q60">
-        <v>960</v>
+        <v>11</v>
       </c>
       <c r="R60">
-        <v>424</v>
+        <v>6</v>
       </c>
       <c r="S60">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>476</v>
+        <v>10</v>
       </c>
       <c r="U60">
-        <v>922</v>
+        <v>10</v>
       </c>
       <c r="V60">
-        <v>2015</v>
+        <v>60</v>
       </c>
       <c r="W60">
-        <v>0.373</v>
+        <v>0.362</v>
       </c>
       <c r="X60">
-        <v>0.302</v>
+        <v>0.222</v>
       </c>
       <c r="Y60">
-        <v>0.738</v>
+        <v>1</v>
       </c>
       <c r="Z60">
-        <v>13.4</v>
+        <v>5.2</v>
       </c>
       <c r="AA60">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="AB60">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AC60">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD60" t="s">
         <v>176</v>
@@ -6409,76 +6376,73 @@
         <v>22</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="H61">
-        <v>1202</v>
+        <v>487</v>
       </c>
       <c r="I61">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="J61">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="N61">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="O61">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="P61">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="Q61">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="R61">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="S61">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="T61">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="U61">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="V61">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="W61">
-        <v>0.449</v>
-      </c>
-      <c r="X61">
-        <v>0.167</v>
+        <v>0.454</v>
       </c>
       <c r="Y61">
-        <v>0.544</v>
+        <v>0.606</v>
       </c>
       <c r="Z61">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AA61">
         <v>2.3</v>
       </c>
       <c r="AB61">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AC61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD61" t="s">
         <v>176</v>
@@ -6501,76 +6465,76 @@
         <v>22</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>88</v>
+      </c>
+      <c r="I62">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <v>31</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>6</v>
+      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
         <v>3</v>
       </c>
-      <c r="G62">
-        <v>65</v>
-      </c>
-      <c r="H62">
-        <v>591</v>
-      </c>
-      <c r="I62">
-        <v>102</v>
-      </c>
-      <c r="J62">
-        <v>255</v>
-      </c>
-      <c r="K62">
-        <v>52</v>
-      </c>
-      <c r="L62">
-        <v>146</v>
-      </c>
-      <c r="M62">
-        <v>9</v>
-      </c>
-      <c r="N62">
-        <v>10</v>
-      </c>
-      <c r="O62">
-        <v>8</v>
-      </c>
-      <c r="P62">
-        <v>49</v>
-      </c>
-      <c r="Q62">
+      <c r="U62">
+        <v>6</v>
+      </c>
+      <c r="V62">
         <v>35</v>
       </c>
-      <c r="R62">
-        <v>23</v>
-      </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>24</v>
-      </c>
-      <c r="U62">
-        <v>51</v>
-      </c>
-      <c r="V62">
-        <v>265</v>
-      </c>
       <c r="W62">
+        <v>0.452</v>
+      </c>
+      <c r="X62">
+        <v>0.5</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>5.5</v>
+      </c>
+      <c r="AA62">
+        <v>2.2</v>
+      </c>
+      <c r="AB62">
         <v>0.4</v>
       </c>
-      <c r="X62">
-        <v>0.356</v>
-      </c>
-      <c r="Y62">
-        <v>0.9</v>
-      </c>
-      <c r="Z62">
-        <v>9.1</v>
-      </c>
-      <c r="AA62">
-        <v>4.1</v>
-      </c>
-      <c r="AB62">
-        <v>0.8</v>
-      </c>
       <c r="AC62">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD62" t="s">
         <v>176</v>
@@ -6593,76 +6557,76 @@
         <v>23</v>
       </c>
       <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>33</v>
+      </c>
+      <c r="H63">
+        <v>181</v>
+      </c>
+      <c r="I63">
+        <v>20</v>
+      </c>
+      <c r="J63">
+        <v>44</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>2</v>
       </c>
-      <c r="G63">
-        <v>87</v>
-      </c>
-      <c r="H63">
-        <v>1150</v>
-      </c>
-      <c r="I63">
-        <v>114</v>
-      </c>
-      <c r="J63">
-        <v>252</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>4</v>
-      </c>
       <c r="M63">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="N63">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="O63">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="P63">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="Q63">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="R63">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="S63">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="U63">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="V63">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="W63">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>0.6879999999999999</v>
+        <v>0.478</v>
       </c>
       <c r="Z63">
-        <v>13.2</v>
+        <v>5.5</v>
       </c>
       <c r="AA63">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="AB63">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD63" t="s">
         <v>176</v>
@@ -6685,76 +6649,76 @@
         <v>21</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>618</v>
+        <v>72</v>
       </c>
       <c r="H64">
-        <v>13878</v>
+        <v>1544</v>
       </c>
       <c r="I64">
-        <v>2458</v>
+        <v>230</v>
       </c>
       <c r="J64">
-        <v>5811</v>
+        <v>565</v>
       </c>
       <c r="K64">
-        <v>811</v>
+        <v>58</v>
       </c>
       <c r="L64">
-        <v>2255</v>
+        <v>146</v>
       </c>
       <c r="M64">
-        <v>1080</v>
+        <v>152</v>
       </c>
       <c r="N64">
-        <v>1357</v>
+        <v>202</v>
       </c>
       <c r="O64">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="P64">
-        <v>1446</v>
+        <v>167</v>
       </c>
       <c r="Q64">
-        <v>1826</v>
+        <v>147</v>
       </c>
       <c r="R64">
-        <v>543</v>
+        <v>59</v>
       </c>
       <c r="S64">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>876</v>
+        <v>114</v>
       </c>
       <c r="U64">
-        <v>1482</v>
+        <v>201</v>
       </c>
       <c r="V64">
-        <v>6807</v>
+        <v>670</v>
       </c>
       <c r="W64">
-        <v>0.423</v>
+        <v>0.407</v>
       </c>
       <c r="X64">
-        <v>0.36</v>
+        <v>0.397</v>
       </c>
       <c r="Y64">
-        <v>0.796</v>
+        <v>0.752</v>
       </c>
       <c r="Z64">
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA64">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB64">
         <v>2.3</v>
       </c>
       <c r="AC64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD64" t="s">
         <v>176</v>
@@ -6952,19 +6916,19 @@
         <v>23</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H67">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="I67">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J67">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6973,52 +6937,52 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O67">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P67">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="Q67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
         <v>3</v>
       </c>
-      <c r="S67">
-        <v>7</v>
-      </c>
       <c r="T67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U67">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="V67">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="W67">
-        <v>0.469</v>
+        <v>0.615</v>
       </c>
       <c r="Y67">
-        <v>0.45</v>
+        <v>0.308</v>
       </c>
       <c r="Z67">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA67">
         <v>1.8</v>
       </c>
       <c r="AB67">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AC67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD67" t="s">
         <v>176</v>
@@ -7041,70 +7005,70 @@
         <v>22</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>43</v>
+      </c>
+      <c r="H68">
+        <v>414</v>
+      </c>
+      <c r="I68">
+        <v>58</v>
+      </c>
+      <c r="J68">
+        <v>120</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
+      <c r="N68">
+        <v>34</v>
+      </c>
+      <c r="O68">
+        <v>38</v>
+      </c>
+      <c r="P68">
+        <v>88</v>
+      </c>
+      <c r="Q68">
+        <v>7</v>
+      </c>
+      <c r="R68">
+        <v>13</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>24</v>
+      </c>
+      <c r="U68">
+        <v>70</v>
+      </c>
+      <c r="V68">
+        <v>146</v>
+      </c>
+      <c r="W68">
+        <v>0.483</v>
+      </c>
+      <c r="Y68">
+        <v>0.882</v>
+      </c>
+      <c r="Z68">
+        <v>9.6</v>
+      </c>
+      <c r="AA68">
+        <v>3.4</v>
+      </c>
+      <c r="AB68">
         <v>2</v>
-      </c>
-      <c r="G68">
-        <v>51</v>
-      </c>
-      <c r="H68">
-        <v>507</v>
-      </c>
-      <c r="I68">
-        <v>67</v>
-      </c>
-      <c r="J68">
-        <v>143</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>35</v>
-      </c>
-      <c r="N68">
-        <v>41</v>
-      </c>
-      <c r="O68">
-        <v>43</v>
-      </c>
-      <c r="P68">
-        <v>99</v>
-      </c>
-      <c r="Q68">
-        <v>11</v>
-      </c>
-      <c r="R68">
-        <v>15</v>
-      </c>
-      <c r="S68">
-        <v>1</v>
-      </c>
-      <c r="T68">
-        <v>27</v>
-      </c>
-      <c r="U68">
-        <v>83</v>
-      </c>
-      <c r="V68">
-        <v>169</v>
-      </c>
-      <c r="W68">
-        <v>0.469</v>
-      </c>
-      <c r="Y68">
-        <v>0.854</v>
-      </c>
-      <c r="Z68">
-        <v>9.9</v>
-      </c>
-      <c r="AA68">
-        <v>3.3</v>
-      </c>
-      <c r="AB68">
-        <v>1.9</v>
       </c>
       <c r="AC68">
         <v>0.2</v>
@@ -7130,76 +7094,76 @@
         <v>24</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="H69">
-        <v>3252</v>
+        <v>753</v>
       </c>
       <c r="I69">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="J69">
-        <v>783</v>
+        <v>151</v>
       </c>
       <c r="K69">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L69">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="N69">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="O69">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="P69">
-        <v>910</v>
+        <v>197</v>
       </c>
       <c r="Q69">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="R69">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="S69">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="T69">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="U69">
-        <v>390</v>
+        <v>95</v>
       </c>
       <c r="V69">
-        <v>954</v>
+        <v>203</v>
       </c>
       <c r="W69">
-        <v>0.462</v>
+        <v>0.51</v>
       </c>
       <c r="X69">
-        <v>0.292</v>
+        <v>0.5</v>
       </c>
       <c r="Y69">
-        <v>0.833</v>
+        <v>0.78</v>
       </c>
       <c r="Z69">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="AA69">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB69">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC69">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD69" t="s">
         <v>176</v>
@@ -7222,76 +7186,76 @@
         <v>23</v>
       </c>
       <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>61</v>
+      </c>
+      <c r="H70">
+        <v>1236</v>
+      </c>
+      <c r="I70">
+        <v>204</v>
+      </c>
+      <c r="J70">
+        <v>492</v>
+      </c>
+      <c r="K70">
+        <v>82</v>
+      </c>
+      <c r="L70">
+        <v>216</v>
+      </c>
+      <c r="M70">
+        <v>99</v>
+      </c>
+      <c r="N70">
+        <v>110</v>
+      </c>
+      <c r="O70">
+        <v>12</v>
+      </c>
+      <c r="P70">
+        <v>116</v>
+      </c>
+      <c r="Q70">
+        <v>75</v>
+      </c>
+      <c r="R70">
+        <v>27</v>
+      </c>
+      <c r="S70">
         <v>3</v>
       </c>
-      <c r="G70">
-        <v>157</v>
-      </c>
-      <c r="H70">
-        <v>2672</v>
-      </c>
-      <c r="I70">
-        <v>446</v>
-      </c>
-      <c r="J70">
-        <v>1097</v>
-      </c>
-      <c r="K70">
-        <v>167</v>
-      </c>
-      <c r="L70">
-        <v>456</v>
-      </c>
-      <c r="M70">
-        <v>201</v>
-      </c>
-      <c r="N70">
-        <v>228</v>
-      </c>
-      <c r="O70">
-        <v>22</v>
-      </c>
-      <c r="P70">
-        <v>214</v>
-      </c>
-      <c r="Q70">
-        <v>164</v>
-      </c>
-      <c r="R70">
-        <v>55</v>
-      </c>
-      <c r="S70">
-        <v>10</v>
-      </c>
       <c r="T70">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="U70">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="V70">
-        <v>1260</v>
+        <v>589</v>
       </c>
       <c r="W70">
-        <v>0.407</v>
+        <v>0.415</v>
       </c>
       <c r="X70">
-        <v>0.366</v>
+        <v>0.38</v>
       </c>
       <c r="Y70">
-        <v>0.882</v>
+        <v>0.9</v>
       </c>
       <c r="Z70">
-        <v>17</v>
+        <v>20.3</v>
       </c>
       <c r="AA70">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB70">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD70" t="s">
         <v>176</v>
@@ -7403,73 +7367,73 @@
         <v>23</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="H72">
-        <v>834</v>
+        <v>465</v>
       </c>
       <c r="I72">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="J72">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L72">
+        <v>17</v>
+      </c>
+      <c r="M72">
+        <v>30</v>
+      </c>
+      <c r="N72">
+        <v>43</v>
+      </c>
+      <c r="O72">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>53</v>
+      </c>
+      <c r="Q72">
+        <v>45</v>
+      </c>
+      <c r="R72">
+        <v>30</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
         <v>34</v>
       </c>
-      <c r="M72">
-        <v>41</v>
-      </c>
-      <c r="N72">
-        <v>64</v>
-      </c>
-      <c r="O72">
-        <v>30</v>
-      </c>
-      <c r="P72">
-        <v>106</v>
-      </c>
-      <c r="Q72">
-        <v>90</v>
-      </c>
-      <c r="R72">
+      <c r="U72">
         <v>47</v>
       </c>
-      <c r="S72">
-        <v>7</v>
-      </c>
-      <c r="T72">
-        <v>59</v>
-      </c>
-      <c r="U72">
-        <v>81</v>
-      </c>
       <c r="V72">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="W72">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="X72">
-        <v>0.206</v>
+        <v>0.235</v>
       </c>
       <c r="Y72">
-        <v>0.641</v>
+        <v>0.698</v>
       </c>
       <c r="Z72">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="AA72">
         <v>2.7</v>
       </c>
       <c r="AB72">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>0.9</v>
@@ -7495,40 +7459,40 @@
         <v>22</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H73">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I73">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J73">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K73">
         <v>4</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R73">
         <v>3</v>
@@ -7537,34 +7501,34 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V73">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="W73">
-        <v>0.425</v>
+        <v>0.44</v>
       </c>
       <c r="X73">
-        <v>0.308</v>
+        <v>0.364</v>
       </c>
       <c r="Y73">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Z73">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="AA73">
         <v>2.8</v>
       </c>
       <c r="AB73">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC73">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD73" t="s">
         <v>176</v>
@@ -7587,76 +7551,73 @@
         <v>23</v>
       </c>
       <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>23</v>
+      </c>
+      <c r="H74">
+        <v>161</v>
+      </c>
+      <c r="I74">
+        <v>15</v>
+      </c>
+      <c r="J74">
+        <v>30</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="N74">
+        <v>27</v>
+      </c>
+      <c r="O74">
+        <v>11</v>
+      </c>
+      <c r="P74">
+        <v>37</v>
+      </c>
+      <c r="Q74">
+        <v>8</v>
+      </c>
+      <c r="R74">
+        <v>3</v>
+      </c>
+      <c r="S74">
         <v>10</v>
       </c>
-      <c r="G74">
-        <v>473</v>
-      </c>
-      <c r="H74">
-        <v>8020</v>
-      </c>
-      <c r="I74">
-        <v>856</v>
-      </c>
-      <c r="J74">
-        <v>1607</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
+      <c r="T74">
         <v>7</v>
       </c>
-      <c r="M74">
-        <v>497</v>
-      </c>
-      <c r="N74">
-        <v>782</v>
-      </c>
-      <c r="O74">
-        <v>520</v>
-      </c>
-      <c r="P74">
-        <v>1757</v>
-      </c>
-      <c r="Q74">
-        <v>618</v>
-      </c>
-      <c r="R74">
-        <v>181</v>
-      </c>
-      <c r="S74">
-        <v>593</v>
-      </c>
-      <c r="T74">
-        <v>358</v>
-      </c>
       <c r="U74">
-        <v>1116</v>
+        <v>30</v>
       </c>
       <c r="V74">
-        <v>2209</v>
+        <v>45</v>
       </c>
       <c r="W74">
-        <v>0.533</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y74">
-        <v>0.636</v>
+        <v>0.556</v>
       </c>
       <c r="Z74">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AA74">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="AB74">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="AC74">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="AD74" t="s">
         <v>176</v>
@@ -7679,76 +7640,76 @@
         <v>21</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>656</v>
+        <v>81</v>
       </c>
       <c r="H75">
-        <v>13578</v>
+        <v>2361</v>
       </c>
       <c r="I75">
-        <v>2652</v>
+        <v>435</v>
       </c>
       <c r="J75">
-        <v>6097</v>
+        <v>940</v>
       </c>
       <c r="K75">
-        <v>716</v>
+        <v>70</v>
       </c>
       <c r="L75">
-        <v>2101</v>
+        <v>214</v>
       </c>
       <c r="M75">
-        <v>788</v>
+        <v>113</v>
       </c>
       <c r="N75">
-        <v>1021</v>
+        <v>160</v>
       </c>
       <c r="O75">
-        <v>795</v>
+        <v>181</v>
       </c>
       <c r="P75">
-        <v>3019</v>
+        <v>521</v>
       </c>
       <c r="Q75">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="R75">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="S75">
-        <v>349</v>
+        <v>63</v>
       </c>
       <c r="T75">
-        <v>650</v>
+        <v>99</v>
       </c>
       <c r="U75">
-        <v>1453</v>
+        <v>247</v>
       </c>
       <c r="V75">
-        <v>6808</v>
+        <v>1053</v>
       </c>
       <c r="W75">
-        <v>0.435</v>
+        <v>0.463</v>
       </c>
       <c r="X75">
-        <v>0.341</v>
+        <v>0.327</v>
       </c>
       <c r="Y75">
-        <v>0.772</v>
+        <v>0.706</v>
       </c>
       <c r="Z75">
-        <v>20.7</v>
+        <v>29.1</v>
       </c>
       <c r="AA75">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="AB75">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD75" t="s">
         <v>176</v>
@@ -7771,76 +7732,76 @@
         <v>20</v>
       </c>
       <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>16</v>
+      </c>
+      <c r="H76">
+        <v>73</v>
+      </c>
+      <c r="I76">
         <v>6</v>
       </c>
-      <c r="G76">
-        <v>200</v>
-      </c>
-      <c r="H76">
-        <v>2475</v>
-      </c>
-      <c r="I76">
-        <v>390</v>
-      </c>
       <c r="J76">
-        <v>928</v>
+        <v>38</v>
       </c>
       <c r="K76">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="M76">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="O76">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="Q76">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="R76">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S76">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="T76">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="V76">
-        <v>1054</v>
+        <v>20</v>
       </c>
       <c r="W76">
-        <v>0.42</v>
+        <v>0.158</v>
       </c>
       <c r="X76">
-        <v>0.325</v>
+        <v>0.118</v>
       </c>
       <c r="Y76">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="Z76">
-        <v>12.4</v>
+        <v>4.6</v>
       </c>
       <c r="AA76">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="AB76">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AC76">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD76" t="s">
         <v>176</v>
@@ -7952,76 +7913,73 @@
         <v>23</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>526</v>
+        <v>68</v>
       </c>
       <c r="H78">
-        <v>10624</v>
+        <v>724</v>
       </c>
       <c r="I78">
-        <v>1776</v>
+        <v>101</v>
       </c>
       <c r="J78">
-        <v>3627</v>
+        <v>228</v>
       </c>
       <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>76</v>
+      </c>
+      <c r="N78">
+        <v>115</v>
+      </c>
+      <c r="O78">
+        <v>43</v>
+      </c>
+      <c r="P78">
+        <v>144</v>
+      </c>
+      <c r="Q78">
+        <v>30</v>
+      </c>
+      <c r="R78">
+        <v>14</v>
+      </c>
+      <c r="S78">
         <v>21</v>
       </c>
-      <c r="L78">
-        <v>110</v>
-      </c>
-      <c r="M78">
-        <v>1374</v>
-      </c>
-      <c r="N78">
-        <v>1892</v>
-      </c>
-      <c r="O78">
-        <v>692</v>
-      </c>
-      <c r="P78">
-        <v>2117</v>
-      </c>
-      <c r="Q78">
-        <v>400</v>
-      </c>
-      <c r="R78">
-        <v>218</v>
-      </c>
-      <c r="S78">
-        <v>154</v>
-      </c>
       <c r="T78">
-        <v>624</v>
+        <v>56</v>
       </c>
       <c r="U78">
-        <v>969</v>
+        <v>113</v>
       </c>
       <c r="V78">
-        <v>4947</v>
+        <v>278</v>
       </c>
       <c r="W78">
-        <v>0.49</v>
-      </c>
-      <c r="X78">
-        <v>0.191</v>
+        <v>0.443</v>
       </c>
       <c r="Y78">
-        <v>0.726</v>
+        <v>0.661</v>
       </c>
       <c r="Z78">
-        <v>20.2</v>
+        <v>10.6</v>
       </c>
       <c r="AA78">
-        <v>9.4</v>
+        <v>4.1</v>
       </c>
       <c r="AB78">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD78" t="s">
         <v>176</v>
@@ -8044,76 +8002,76 @@
         <v>19</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>580</v>
+        <v>61</v>
       </c>
       <c r="H79">
-        <v>13914</v>
+        <v>1070</v>
       </c>
       <c r="I79">
-        <v>1696</v>
+        <v>139</v>
       </c>
       <c r="J79">
-        <v>4062</v>
+        <v>348</v>
       </c>
       <c r="K79">
-        <v>790</v>
+        <v>65</v>
       </c>
       <c r="L79">
-        <v>2067</v>
+        <v>182</v>
       </c>
       <c r="M79">
-        <v>874</v>
+        <v>61</v>
       </c>
       <c r="N79">
-        <v>1105</v>
+        <v>71</v>
       </c>
       <c r="O79">
-        <v>352</v>
+        <v>29</v>
       </c>
       <c r="P79">
-        <v>1811</v>
+        <v>130</v>
       </c>
       <c r="Q79">
-        <v>588</v>
+        <v>34</v>
       </c>
       <c r="R79">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="S79">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="T79">
-        <v>536</v>
+        <v>43</v>
       </c>
       <c r="U79">
-        <v>1055</v>
+        <v>90</v>
       </c>
       <c r="V79">
-        <v>5056</v>
+        <v>404</v>
       </c>
       <c r="W79">
-        <v>0.418</v>
+        <v>0.399</v>
       </c>
       <c r="X79">
-        <v>0.382</v>
+        <v>0.357</v>
       </c>
       <c r="Y79">
-        <v>0.791</v>
+        <v>0.859</v>
       </c>
       <c r="Z79">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AA79">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AB79">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AD79" t="s">
         <v>176</v>
@@ -8225,76 +8183,76 @@
         <v>21</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>845</v>
+        <v>80</v>
       </c>
       <c r="H81">
-        <v>28865</v>
+        <v>2307</v>
       </c>
       <c r="I81">
-        <v>4874</v>
+        <v>339</v>
       </c>
       <c r="J81">
-        <v>10964</v>
+        <v>805</v>
       </c>
       <c r="K81">
-        <v>1178</v>
+        <v>91</v>
       </c>
       <c r="L81">
-        <v>3296</v>
+        <v>219</v>
       </c>
       <c r="M81">
-        <v>2878</v>
+        <v>95</v>
       </c>
       <c r="N81">
-        <v>3502</v>
+        <v>135</v>
       </c>
       <c r="O81">
-        <v>353</v>
+        <v>35</v>
       </c>
       <c r="P81">
-        <v>2619</v>
+        <v>194</v>
       </c>
       <c r="Q81">
-        <v>6819</v>
+        <v>359</v>
       </c>
       <c r="R81">
-        <v>867</v>
+        <v>60</v>
       </c>
       <c r="S81">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="T81">
-        <v>2402</v>
+        <v>145</v>
       </c>
       <c r="U81">
-        <v>2132</v>
+        <v>233</v>
       </c>
       <c r="V81">
-        <v>13804</v>
+        <v>864</v>
       </c>
       <c r="W81">
-        <v>0.445</v>
+        <v>0.421</v>
       </c>
       <c r="X81">
-        <v>0.357</v>
+        <v>0.416</v>
       </c>
       <c r="Y81">
-        <v>0.822</v>
+        <v>0.704</v>
       </c>
       <c r="Z81">
-        <v>34.2</v>
+        <v>28.8</v>
       </c>
       <c r="AA81">
-        <v>16.3</v>
+        <v>10.8</v>
       </c>
       <c r="AB81">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC81">
-        <v>8.1</v>
+        <v>4.5</v>
       </c>
       <c r="AD81" t="s">
         <v>176</v>
@@ -8317,76 +8275,76 @@
         <v>19</v>
       </c>
       <c r="F82">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>996</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>24775</v>
+        <v>145</v>
       </c>
       <c r="I82">
-        <v>4633</v>
+        <v>23</v>
       </c>
       <c r="J82">
-        <v>11026</v>
+        <v>52</v>
       </c>
       <c r="K82">
-        <v>1347</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3851</v>
+        <v>9</v>
       </c>
       <c r="M82">
-        <v>3811</v>
+        <v>8</v>
       </c>
       <c r="N82">
-        <v>4535</v>
+        <v>13</v>
       </c>
       <c r="O82">
-        <v>391</v>
+        <v>3</v>
       </c>
       <c r="P82">
-        <v>2244</v>
+        <v>19</v>
       </c>
       <c r="Q82">
-        <v>3438</v>
+        <v>10</v>
       </c>
       <c r="R82">
-        <v>874</v>
+        <v>5</v>
       </c>
       <c r="S82">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="T82">
-        <v>1735</v>
+        <v>13</v>
       </c>
       <c r="U82">
-        <v>1326</v>
+        <v>13</v>
       </c>
       <c r="V82">
-        <v>14424</v>
+        <v>56</v>
       </c>
       <c r="W82">
-        <v>0.42</v>
+        <v>0.442</v>
       </c>
       <c r="X82">
-        <v>0.35</v>
+        <v>0.222</v>
       </c>
       <c r="Y82">
-        <v>0.84</v>
+        <v>0.615</v>
       </c>
       <c r="Z82">
-        <v>24.9</v>
+        <v>4.8</v>
       </c>
       <c r="AA82">
-        <v>14.5</v>
+        <v>1.9</v>
       </c>
       <c r="AB82">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="AC82">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD82" t="s">
         <v>176</v>
@@ -8409,76 +8367,76 @@
         <v>19</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>1066</v>
+        <v>79</v>
       </c>
       <c r="H83">
-        <v>30041</v>
+        <v>1952</v>
       </c>
       <c r="I83">
-        <v>3919</v>
+        <v>235</v>
       </c>
       <c r="J83">
-        <v>8854</v>
+        <v>531</v>
       </c>
       <c r="K83">
-        <v>1042</v>
+        <v>13</v>
       </c>
       <c r="L83">
-        <v>2882</v>
+        <v>53</v>
       </c>
       <c r="M83">
-        <v>2061</v>
+        <v>189</v>
       </c>
       <c r="N83">
-        <v>2551</v>
+        <v>253</v>
       </c>
       <c r="O83">
-        <v>1266</v>
+        <v>122</v>
       </c>
       <c r="P83">
-        <v>5511</v>
+        <v>383</v>
       </c>
       <c r="Q83">
-        <v>1369</v>
+        <v>63</v>
       </c>
       <c r="R83">
-        <v>823</v>
+        <v>48</v>
       </c>
       <c r="S83">
-        <v>573</v>
+        <v>24</v>
       </c>
       <c r="T83">
-        <v>1016</v>
+        <v>83</v>
       </c>
       <c r="U83">
-        <v>2146</v>
+        <v>227</v>
       </c>
       <c r="V83">
-        <v>10941</v>
+        <v>672</v>
       </c>
       <c r="W83">
         <v>0.443</v>
       </c>
       <c r="X83">
-        <v>0.362</v>
+        <v>0.245</v>
       </c>
       <c r="Y83">
-        <v>0.8080000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="Z83">
-        <v>28.2</v>
+        <v>24.7</v>
       </c>
       <c r="AA83">
-        <v>10.3</v>
+        <v>8.5</v>
       </c>
       <c r="AB83">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AC83">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD83" t="s">
         <v>176</v>
@@ -8501,76 +8459,76 @@
         <v>21</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="H84">
-        <v>5714</v>
+        <v>370</v>
       </c>
       <c r="I84">
-        <v>617</v>
+        <v>29</v>
       </c>
       <c r="J84">
-        <v>1499</v>
+        <v>81</v>
       </c>
       <c r="K84">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="M84">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="N84">
-        <v>334</v>
+        <v>22</v>
       </c>
       <c r="O84">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="P84">
-        <v>681</v>
+        <v>30</v>
       </c>
       <c r="Q84">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="R84">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="S84">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="U84">
-        <v>598</v>
+        <v>42</v>
       </c>
       <c r="V84">
-        <v>1614</v>
+        <v>70</v>
       </c>
       <c r="W84">
-        <v>0.412</v>
+        <v>0.358</v>
       </c>
       <c r="X84">
-        <v>0.304</v>
+        <v>0.067</v>
       </c>
       <c r="Y84">
-        <v>0.674</v>
+        <v>0.5</v>
       </c>
       <c r="Z84">
-        <v>19.2</v>
+        <v>9.5</v>
       </c>
       <c r="AA84">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB84">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD84" t="s">
         <v>176</v>
@@ -8593,76 +8551,76 @@
         <v>21</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H85">
-        <v>325</v>
+        <v>135</v>
       </c>
       <c r="I85">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J85">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L85">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N85">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="O85">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q85">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R85">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="U85">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="V85">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="W85">
-        <v>0.405</v>
+        <v>0.412</v>
       </c>
       <c r="X85">
-        <v>0.324</v>
+        <v>0.353</v>
       </c>
       <c r="Y85">
-        <v>0.794</v>
+        <v>0.875</v>
       </c>
       <c r="Z85">
-        <v>12.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA85">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="AB85">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD85" t="s">
         <v>176</v>
